--- a/xlsx/213.xlsx
+++ b/xlsx/213.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="7320" yWindow="5940" windowWidth="11820" windowHeight="6045"/>
+    <workbookView xWindow="7320" yWindow="5940" windowWidth="11820" windowHeight="6045"/>
   </bookViews>
   <sheets>
     <sheet name="213" sheetId="1" r:id="rId1"/>
